--- a/shop_emotion/신제품보만 BF1126C_negative.xlsx
+++ b/shop_emotion/신제품보만 BF1126C_negative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고\n무선의 최대장점 어디에서든 사용가능해서 구매했어요\n야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요\n사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다\n사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요\n선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~\n무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요\n그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다\n또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍\n무선치고 힘도좋아 시원하네요\n단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다\n기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요\n에어컨과함께 사용시 1단계도 충분하네요\n한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다\n사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ\n덕분에 시원한 관람될것같네요\n감사히 잘쓰겠습니다']</t>
+          <t>['일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는\n일반선풍기 찾아보다가 발견하고 구매했어요.\n작고 소음도 없는 편이라고 해서요.\n음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ\n이건 개인차가 있지만 1로 해도 저에']</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94.91929337382317</v>
+        <v>59.87758338451385</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8\n일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음\n소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고']</t>
+          <t>['일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8\n일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음\n소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요\n배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요']</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>96.48375883698463</v>
+        <v>54.13564741611481</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에\n받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다\n생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요\n역시 써큘레이터와는 바람의 질이 틀리네요\n\n단하나 아쉬운것은 휴대용가방</t>
+          <t>['집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서\n집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.\n주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.\n굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.\n1단 2단도 풍량의 차이가 없어요.\n충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.\n껐다가 켰을때 1단이 아니고 2단으로 시작해요.\n무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.\n등등해서 접을 수 있다는거 빼곤 별로예요.']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96.52869254350662</v>
+        <v>98.81417062133551</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!']</t>
+          <t>['캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해\n캠핑장에서도 집에서도 정말 유용한 제품입니다.\n무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.\n집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.\n소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;\n멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요\n!']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96.53736688196659</v>
+        <v>93.64792928099632</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서\n집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.\n주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.\n굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.\n1단 2단도 풍량의 차이가 없어요.\n충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.\n껐다가 켰을때 1단이 아니고 2단으로 시작해요.\n무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어</t>
+          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96.54399566352367</v>
+        <v>58.88223052024841</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
+          <t>['애기(여중학생)한테 뺏겼어요 ㅋㅋ예민해서 기존에 쓰던 선풍기 저 주고요걸로 바꿔갔어요리모컨도 있어서 책상밑 침대옆에두고다리쪽으로향하게 두고 쓰고있어요요모조모 기능좋은 제품이라 아주\n애기(여중학생)한테 뺏겼어요 ㅋㅋ\n예민해서 기존에 쓰던 선풍기 저 주고\n요걸로 바꿔갔어요\n리모컨도 있어서 책상밑 침대옆에두고\n다리쪽으로향하게 두고 쓰고있어요\n요모조모\n특히 진심 조용해요\n기존꺼랑 비교하면 화악! 달라요']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66.91883206367493</v>
+        <v>65.59658944606781</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크\n다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!\n\n리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!\n\n크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~\n\n잘 쓸게요</t>
+          <t>['바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무\n바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.\n손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무 작아서 바람이 불까싶었는데 강하게 틀면 나름 시원하네요']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94.48476545512676</v>
+        <v>66.98586940765381</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
+          <t>['일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.\n일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>96.32803052663803</v>
+        <v>50.8467048406601</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은\n잘 사용하고 있어요.\n생각했던 것보다 소음이 좀 있기는한데,\n바람세기도 8단계나 되고 이동하기도 편해서\n만족스러운 구매였던 것 같아요.\n아! 그리고 충전기 연결해서 사용하면 바람세기가\n같은 1인데도 더 세구요.\n충전 다하고 코드 빼고 사용하면 좀 약해요.\n저는 약한게 좋아서 충전 다하고 사용중이에요.\n그런데 오랜만에 왔더니 가격이 저렴해졌네요.\n한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ\n아무튼 오래 잘 사용할께요~!']</t>
+          <t>['디자인도 깔끔하도 배송도 빠릅니다.소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.\n디자인도 깔끔하도 배송도 빠릅니다.\n소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81.35039657354355</v>
+        <v>80.03109395503998</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고\n무선의 최대장점 어디에서든 사용가능해서 구매했어요\n야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요\n사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다\n사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요\n선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~\n무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요\n그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다\n또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍\n무선치고 힘도좋아 시원하네요\n단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다\n기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요\n에어컨과함께 사용시 1단계도 충분하네요\n한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다\n사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ\n덕분에 시원한 관람될것같네요\n감사히 잘쓰겠습니다']</t>
+          <t>['폴더블은 좋으네요.생각했던거보다 소음이 좀 있지만야외용이니.1-4단 풍량이 비슷한대 정상인지요.스크래치 도 좀 있었지만 교환반품 번거로우니.길이조절.회전되서 좋으네요\n폴더블은 좋으네요.\n생각했던거보다 소음이 좀 있지만\n야외용이니.\n1-4단 풍량이 비슷한대 정상인지요.\n스크래치 도 좀 있었지만 교환반품 번거로우니.']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>94.91929337382317</v>
+        <v>91.91133975982666</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8\n일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음\n소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요\n배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요']</t>
+          <t>['무소음 무선 이라고해서 샀는데 소음이 있네요. 흠. 원래 이정도 소음은 있는건가요? 너무 기대했는지 별로 맘에 그냥 그래요.\n무소음 무선 이라고해서 샀는데 소음이 있네요. 흠. 원래 이정도 소음은 있는건가요? 너무 기대했는지 별로 맘에 그냥 그래요.']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>96.31798788905144</v>
+        <v>99.70323089510202</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에\n받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다\n생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요\n역시 써큘레이터와는 바람의 질이 틀리네요\n\n단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요\n이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다']</t>
+          <t>['휴대가 편해서 차박할때 많이 사용하고 있어요.\n휴대가 편해서 차박할때 많이 사용하고 있어요.']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>96.52869254350662</v>
+        <v>60.99919974803925</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!']</t>
+          <t>['저소음은 절대 아닙니다. 매우 시끄러워요.\n저소음은 절대 아닙니다. 매우 시끄러워요.']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>96.53736688196659</v>
+        <v>98.44060922041535</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서\n집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.\n주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.\n굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.\n1단 2단도 풍량의 차이가 없어요.\n충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.\n껐다가 켰을때 1단이 아니고 2단으로 시작해요.\n무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.\n등등해서 접을 수 있다는거 빼곤 별로예요.']</t>
+          <t>['배터리만가득있는데 꺼져요 ㅠㅠ\n배터리만가득있는데 꺼져요 ㅠㅠ']</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>96.54399566352367</v>
+        <v>92.04977229237556</v>
       </c>
     </row>
     <row r="16">
@@ -633,518 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
+          <t>['불량왔는데 연락이안됨 !!글달아도답글도 없고 이거 뭐 어쩌자는건지 한달이넘었는데도 연락이없다 ㅠㅠ\n불량왔는데 연락이안됨 !!글달아도답글도 없고 이거 뭐 어쩌자는건지 한달이넘었는데도 연락이없다 ㅠㅠ']</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66.91883206367493</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>['다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크\n다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!\n\n리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!\n\n크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~\n\n잘 쓸게요!!']</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>94.48476545512676</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>96.32803052663803</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>['잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은\n잘 사용하고 있어요.\n생각했던 것보다 소음이 좀 있기는한데,\n바람세기도 8단계나 되고 이동하기도 편해서\n만족스러운 구매였던 것 같아요.\n아! 그리고 충전기 연결해서 사용하면 바람세기가\n같은 1인데도 더 세구요.\n충전 다하고 코드 빼고 사용하면 좀 약해요.\n저는 약한게 좋아서 충전 다하고 사용중이에요.\n그런데 오랜만에 왔더니 가격이 저렴해졌네요.\n한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ\n아무튼 오래 잘 사용할께요~!']</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>81.35039657354355</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>['무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고\n무선의 최대장점 어디에서든 사용가능해서 구매했어요\n야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요\n사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다\n사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요\n선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~\n무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요\n그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다\n또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍\n무선치고 힘도좋아 시원하네요\n단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다\n기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요\n에어컨과함께 사용시 1단계도 충분하네요\n한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다\n사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ\n덕분에 시원한 관람될것같네요\n감사히 잘쓰겠습니다']</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>94.91929337382317</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>['일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8\n일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음\n소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요\n배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요']</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>96.31798788905144</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>['받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에\n받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다\n생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요\n역시 써큘레이터와는 바람의 질이 틀리네요\n\n단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요\n이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다']</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>96.52869254350662</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!']</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>96.53736688196659</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>['집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서\n집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.\n주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.\n굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.\n1단 2단도 풍량의 차이가 없어요.\n충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.\n껐다가 켰을때 1단이 아니고 2단으로 시작해요.\n무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.\n등등해서 접을 수 있다는거 빼곤 별로예요.']</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>96.54399566352367</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>66.91883206367493</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>['다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크\n다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!\n\n리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!\n\n크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~\n\n잘 쓸게요!!']</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>94.48476545512676</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>96.32803052663803</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>['잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은\n잘 사용하고 있어요.\n생각했던 것보다 소음이 좀 있기는한데,\n바람세기도 8단계나 되고 이동하기도 편해서\n만족스러운 구매였던 것 같아요.\n아! 그리고 충전기 연결해서 사용하면 바람세기가\n같은 1인데도 더 세구요.\n충전 다하고 코드 빼고 사용하면 좀 약해요.\n저는 약한게 좋아서 충전 다하고 사용중이에요.\n그런데 오랜만에 왔더니 가격이 저렴해졌네요.\n한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ\n아무튼 오래 잘 사용할께요~!']</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>81.35039657354355</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>['무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고\n무선의 최대장점 어디에서든 사용가능해서 구매했어요\n야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요\n사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다\n사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요\n선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~\n무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요\n그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다\n또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍\n무선치고 힘도좋아 시원하네요\n단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다\n기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요\n에어컨과함께 사용시 1단계도 충분하네요\n한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다\n사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ\n덕분에 시원한 관람될것같네요\n감사히 잘쓰겠습니다']</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>94.91929337382317</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>['일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8\n일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음\n소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요\n배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요']</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>96.31798788905144</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>['받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에\n받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다\n생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요\n역시 써큘레이터와는 바람의 질이 틀리네요\n\n단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요\n이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다']</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>96.52869254350662</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!']</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>96.53736688196659</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>['집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서\n집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.\n주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.\n굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.\n1단 2단도 풍량의 차이가 없어요.\n충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.\n껐다가 켰을때 1단이 아니고 2단으로 시작해요.\n무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.\n등등해서 접을 수 있다는거 빼곤 별로예요.']</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>96.54399566352367</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>66.91883206367493</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>['다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크\n다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!\n\n리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!\n\n크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~\n\n잘 쓸게요!!']</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>94.48476545512676</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>96.32803052663803</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>['잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은\n잘 사용하고 있어요.\n생각했던 것보다 소음이 좀 있기는한데,\n바람세기도 8단계나 되고 이동하기도 편해서\n만족스러운 구매였던 것 같아요.\n아! 그리고 충전기 연결해서 사용하면 바람세기가\n같은 1인데도 더 세구요.\n충전 다하고 코드 빼고 사용하면 좀 약해요.\n저는 약한게 좋아서 충전 다하고 사용중이에요.\n그런데 오랜만에 왔더니 가격이 저렴해졌네요.\n한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ\n아무튼 오래 잘 사용할께요~!']</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>81.35039657354355</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>['무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고\n무선의 최대장점 어디에서든 사용가능해서 구매했어요\n야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요\n사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다\n사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요\n선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~\n무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요\n그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다\n또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍\n무선치고 힘도좋아 시원하네요\n단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다\n기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요\n에어컨과함께 사용시 1단계도 충분하네요\n한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다\n사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ\n덕분에 시원한 관람될것같네요\n감사히 잘쓰겠습니다']</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>94.91929337382317</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>['일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8\n일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음\n소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요\n배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요']</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>96.31798788905144</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>['받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에\n받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다\n생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요\n역시 써큘레이터와는 바람의 질이 틀리네요\n\n단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요\n이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다']</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>96.52869254350662</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!']</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>96.53736688196659</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>['집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서\n집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.\n주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.\n굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.\n1단 2단도 풍량의 차이가 없어요.\n충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.\n껐다가 켰을때 1단이 아니고 2단으로 시작해요.\n무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.\n등등해서 접을 수 있다는거 빼곤 별로예요.']</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>96.54399566352367</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>66.91883206367493</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>['다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크\n다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!\n\n리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!\n\n크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~\n\n잘 쓸게요!!']</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>94.48476545512676</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>96.32803052663803</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>['잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은\n잘 사용하고 있어요.\n생각했던 것보다 소음이 좀 있기는한데,\n바람세기도 8단계나 되고 이동하기도 편해서\n만족스러운 구매였던 것 같아요.\n아! 그리고 충전기 연결해서 사용하면 바람세기가\n같은 1인데도 더 세구요.\n충전 다하고 코드 빼고 사용하면 좀 약해요.\n저는 약한게 좋아서 충전 다하고 사용중이에요.\n그런데 오랜만에 왔더니 가격이 저렴해졌네요.\n한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ\n아무튼 오래 잘 사용할께요~!']</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>81.35039657354355</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>['무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고\n무선의 최대장점 어디에서든 사용가능해서 구매했어요\n야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요\n사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다\n사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요\n선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~\n무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요\n그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다\n또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍\n무선치고 힘도좋아 시원하네요\n단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다\n기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요\n에어컨과함께 사용시 1단계도 충분하네요\n한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다\n사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ\n덕분에 시원한 관람될것같네요\n감사히 잘쓰겠습니다']</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>94.91929337382317</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>['일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8\n일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음\n소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요\n배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요']</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>96.31798788905144</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>['받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에\n받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다\n생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요\n역시 써큘레이터와는 바람의 질이 틀리네요\n\n단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요\n이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다']</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>96.52869254350662</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!']</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>96.53736688196659</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>['집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서\n집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.\n주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.\n굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.\n1단 2단도 풍량의 차이가 없어요.\n충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.\n껐다가 켰을때 1단이 아니고 2단으로 시작해요.\n무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.\n등등해서 접을 수 있다는거 빼곤 별로예요.']</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>96.54399566352367</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>66.91883206367493</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>['다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크\n다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!\n\n리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!\n\n크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~\n\n잘 쓸게요!!']</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>94.48476545512676</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>96.32803052663803</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>['잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은\n잘 사용하고 있어요.\n생각했던 것보다 소음이 좀 있기는한데,\n바람세기도 8단계나 되고 이동하기도 편해서\n만족스러운 구매였던 것 같아요.\n아! 그리고 충전기 연결해서 사용하면 바람세기가\n같은 1인데도 더 세구요.\n충전 다하고 코드 빼고 사용하면 좀 약해요.\n저는 약한게 좋아서 충전 다하고 사용중이에요.\n그런데 오랜만에 왔더니 가격이 저렴해졌네요.\n한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ\n아무튼 오래 잘 사용할께요~!']</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>81.35039657354355</v>
+        <v>99.91349262418225</v>
       </c>
     </row>
   </sheetData>

--- a/shop_emotion/신제품보만 BF1126C_negative.xlsx
+++ b/shop_emotion/신제품보만 BF1126C_negative.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59.87758338451385</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54.13564741611481</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.81417062133551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>93.64792928099632</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약\n생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.']</t>
+          <t>['애기(여중학생)한테 뺏겼어요 ㅋㅋ예민해서 기존에 쓰던 선풍기 저 주고요걸로 바꿔갔어요리모컨도 있어서 책상밑 침대옆에두고다리쪽으로향하게 두고 쓰고있어요요모조모 기능좋은 제품이라 아주\n애기(여중학생)한테 뺏겼어요 ㅋㅋ\n예민해서 기존에 쓰던 선풍기 저 주고\n요걸로 바꿔갔어요\n리모컨도 있어서 책상밑 침대옆에두고\n다리쪽으로향하게 두고 쓰고있어요\n요모조모\n특히 진심 조용해요\n기존꺼랑 비교하면 화악! 달라요']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.88223052024841</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['애기(여중학생)한테 뺏겼어요 ㅋㅋ예민해서 기존에 쓰던 선풍기 저 주고요걸로 바꿔갔어요리모컨도 있어서 책상밑 침대옆에두고다리쪽으로향하게 두고 쓰고있어요요모조모 기능좋은 제품이라 아주\n애기(여중학생)한테 뺏겼어요 ㅋㅋ\n예민해서 기존에 쓰던 선풍기 저 주고\n요걸로 바꿔갔어요\n리모컨도 있어서 책상밑 침대옆에두고\n다리쪽으로향하게 두고 쓰고있어요\n요모조모\n특히 진심 조용해요\n기존꺼랑 비교하면 화악! 달라요']</t>
+          <t>['바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무\n바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.\n손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무 작아서 바람이 불까싶었는데 강하게 틀면 나름 시원하네요']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.59658944606781</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무\n바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.\n손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무 작아서 바람이 불까싶었는데 강하게 틀면 나름 시원하네요']</t>
+          <t>['일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.\n일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>66.98586940765381</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.\n일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.']</t>
+          <t>['디자인도 깔끔하도 배송도 빠릅니다.소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.\n디자인도 깔끔하도 배송도 빠릅니다.\n소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.8467048406601</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['디자인도 깔끔하도 배송도 빠릅니다.소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.\n디자인도 깔끔하도 배송도 빠릅니다.\n소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.']</t>
+          <t>['폴더블은 좋으네요.생각했던거보다 소음이 좀 있지만야외용이니.1-4단 풍량이 비슷한대 정상인지요.스크래치 도 좀 있었지만 교환반품 번거로우니.길이조절.회전되서 좋으네요\n폴더블은 좋으네요.\n생각했던거보다 소음이 좀 있지만\n야외용이니.\n1-4단 풍량이 비슷한대 정상인지요.\n스크래치 도 좀 있었지만 교환반품 번거로우니.']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80.03109395503998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['폴더블은 좋으네요.생각했던거보다 소음이 좀 있지만야외용이니.1-4단 풍량이 비슷한대 정상인지요.스크래치 도 좀 있었지만 교환반품 번거로우니.길이조절.회전되서 좋으네요\n폴더블은 좋으네요.\n생각했던거보다 소음이 좀 있지만\n야외용이니.\n1-4단 풍량이 비슷한대 정상인지요.\n스크래치 도 좀 있었지만 교환반품 번거로우니.']</t>
+          <t>['날개가 작아 바람이 시원하진 않아요, 소음도 크고요,가격도 좀 비싼 듯 합니다.\n날개가 작아 바람이 시원하진 않아요, 소음도 크고요,\n가격도 좀 비싼 듯 합니다.']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91.91133975982666</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.70323089510202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60.99919974803925</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>98.44060922041535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92.04977229237556</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>99.91349262418225</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
